--- a/spec/fixtures/sample.xlsx
+++ b/spec/fixtures/sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33020" yWindow="-2200" windowWidth="29820" windowHeight="12900" activeTab="3"/>
+    <workbookView xWindow="-33020" yWindow="-2200" windowWidth="29820" windowHeight="12900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="12" r:id="rId1"/>
     <sheet name="template1" sheetId="2" r:id="rId2"/>
     <sheet name="data2" sheetId="10" r:id="rId3"/>
     <sheet name="template2" sheetId="11" r:id="rId4"/>
+    <sheet name="data3" sheetId="13" r:id="rId5"/>
+    <sheet name="template3" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>テスト一覧</t>
     <phoneticPr fontId="2"/>
@@ -77,6 +79,22 @@
   </si>
   <si>
     <t>画像サンプル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コピーせる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -84,8 +102,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -142,7 +161,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,6 +345,12 @@
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -346,6 +377,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,11 +797,11 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="23">
+      <c r="F1" s="25">
         <f ca="1">NOW()</f>
-        <v>42607.724575115739</v>
-      </c>
-      <c r="G1" s="23"/>
+        <v>42618.619181018519</v>
+      </c>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -790,10 +827,10 @@
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -805,16 +842,16 @@
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="27"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
@@ -832,12 +869,12 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
@@ -928,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
@@ -942,11 +979,11 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="23">
+      <c r="F1" s="25">
         <f ca="1">NOW()</f>
-        <v>42607.724575115739</v>
-      </c>
-      <c r="G1" s="23"/>
+        <v>42618.619181018519</v>
+      </c>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -966,8 +1003,8 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -979,4 +1016,64 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spec/fixtures/sample.xlsx
+++ b/spec/fixtures/sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33020" yWindow="-2200" windowWidth="29820" windowHeight="12900" activeTab="5"/>
+    <workbookView xWindow="-33020" yWindow="-2200" windowWidth="29820" windowHeight="12900" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="12" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="template2" sheetId="11" r:id="rId4"/>
     <sheet name="data3" sheetId="13" r:id="rId5"/>
     <sheet name="template3" sheetId="15" r:id="rId6"/>
+    <sheet name="refer_to_values" sheetId="16" r:id="rId7"/>
+    <sheet name="values" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>テスト一覧</t>
     <phoneticPr fontId="2"/>
@@ -95,6 +97,74 @@
   </si>
   <si>
     <t>月</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参考値（書式を有効にするため必ず値を設定してください）</t>
+    <rPh sb="0" eb="3">
+      <t>サンコウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショシキヲ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウコウニスルタメ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カナラズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイヲ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイシテクダサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;COMPANY_POST_CODE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>111-1111</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;COMPANY_NAME&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社AAA</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキカイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;COMPANY_CODE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0532</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;AMOUNT&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ORDER_DATE&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;DIRECT_TEXT&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -264,15 +334,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +421,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -378,16 +481,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,11 +898,11 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="25">
+      <c r="F1" s="35">
         <f ca="1">NOW()</f>
-        <v>42618.619181018519</v>
-      </c>
-      <c r="G1" s="25"/>
+        <v>42783.67244884259</v>
+      </c>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -827,10 +928,10 @@
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -842,16 +943,16 @@
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
@@ -869,12 +970,12 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
@@ -979,11 +1080,11 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="25">
+      <c r="F1" s="35">
         <f ca="1">NOW()</f>
-        <v>42618.619181018519</v>
-      </c>
-      <c r="G1" s="25"/>
+        <v>42783.67244884259</v>
+      </c>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -1003,8 +1104,8 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -1035,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -1068,9 +1169,152 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="str">
+        <f>values!B2</f>
+        <v>111-1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="str">
+        <f>values!B3</f>
+        <v>株式会社AAA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="str">
+        <f>values!B4</f>
+        <v>0532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="30">
+        <f>values!B5</f>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <f>values!B6</f>
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="45" t="str">
+        <f>values!B8</f>
+        <v>&lt;DIRECT_TEXT&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="30">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="32">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="34"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/spec/fixtures/sample.xlsx
+++ b/spec/fixtures/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33020" yWindow="-2200" windowWidth="29820" windowHeight="12900" activeTab="7"/>
+    <workbookView xWindow="2380" yWindow="3220" windowWidth="29820" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>テスト一覧</t>
     <phoneticPr fontId="2"/>
@@ -97,35 +97,6 @@
   </si>
   <si>
     <t>月</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参考値（書式を有効にするため必ず値を設定してください）</t>
-    <rPh sb="0" eb="3">
-      <t>サンコウチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショシキヲ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ユウコウニスルタメ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カナラズ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アタイヲ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイシテクダサイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -164,7 +135,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;DIRECT_TEXT&gt;</t>
+    <t>参考値</t>
+    <rPh sb="0" eb="3">
+      <t>サンコウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名（書式の設定も行なってください）</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショシキノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイモ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナッテクダサイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -345,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,9 +429,6 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -480,9 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -789,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -898,11 +882,11 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="35">
+      <c r="F1" s="34">
         <f ca="1">NOW()</f>
-        <v>42783.67244884259</v>
-      </c>
-      <c r="G1" s="35"/>
+        <v>42786.443903819447</v>
+      </c>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -928,10 +912,10 @@
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -943,16 +927,16 @@
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
@@ -970,12 +954,12 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
@@ -1080,11 +1064,11 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="35">
+      <c r="F1" s="34">
         <f ca="1">NOW()</f>
-        <v>42783.67244884259</v>
-      </c>
-      <c r="G1" s="35"/>
+        <v>42786.443903819447</v>
+      </c>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -1104,8 +1088,8 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -1181,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1194,39 +1178,51 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="str">
-        <f>values!B2</f>
-        <v>111-1111</v>
+        <f>values!A2</f>
+        <v>&lt;COMPANY_POST_CODE&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="str">
-        <f>values!B3</f>
-        <v>株式会社AAA</v>
+        <f>values!A3</f>
+        <v>&lt;COMPANY_NAME&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="str">
-        <f>values!B4</f>
-        <v>0532</v>
+        <f>values!A4</f>
+        <v>&lt;COMPANY_CODE&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
-        <f>values!B5</f>
-        <v>4000000</v>
+      <c r="A4" s="30" t="str">
+        <f>values!A5</f>
+        <v>&lt;AMOUNT&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <f>values!B6</f>
-        <v>42755</v>
-      </c>
+      <c r="A5" s="31" t="str">
+        <f>values!A6</f>
+        <v>&lt;ORDER_DATE&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="str">
-        <f>values!B8</f>
-        <v>&lt;DIRECT_TEXT&gt;</v>
-      </c>
+      <c r="A7" s="28"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="28"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1238,51 +1234,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B3" s="28" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="B5" s="30">
         <v>4000000</v>
@@ -1290,17 +1286,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="32">
+        <v>23</v>
+      </c>
+      <c r="B6" s="31">
         <v>42755</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="27"/>
-      <c r="B8" s="29" t="s">
-        <v>26</v>
-      </c>
+      <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
@@ -1311,10 +1305,10 @@
       <c r="B10" s="29"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="34"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="34"/>
+      <c r="B81" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/spec/fixtures/sample.xlsx
+++ b/spec/fixtures/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3220" windowWidth="29820" windowHeight="12900"/>
+    <workbookView xWindow="100" yWindow="6600" windowWidth="29820" windowHeight="12900" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>テスト一覧</t>
     <phoneticPr fontId="2"/>
@@ -155,6 +155,21 @@
     <rPh sb="10" eb="11">
       <t>オコナッテクダサイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;DIRECT_TEXT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;BLANK&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;NIL1&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;NIL2&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -773,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -884,7 +899,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="34">
         <f ca="1">NOW()</f>
-        <v>42786.443903819447</v>
+        <v>42793.684029050928</v>
       </c>
       <c r="G1" s="34"/>
     </row>
@@ -1066,7 +1081,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="34">
         <f ca="1">NOW()</f>
-        <v>42786.443903819447</v>
+        <v>42793.684029050928</v>
       </c>
       <c r="G1" s="34"/>
     </row>
@@ -1167,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1206,20 +1221,29 @@
         <v>&lt;ORDER_DATE&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="28" t="str">
+        <f>values!A7</f>
+        <v>&lt;DIRECT_TEXT&gt;</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
+      <c r="A8" s="28" t="str">
+        <f>values!A8</f>
+        <v>&lt;BLANK&gt;</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
+      <c r="A9" s="28" t="str">
+        <f>values!A9</f>
+        <v>&lt;NIL1&gt;</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
+      <c r="A10" s="28" t="str">
+        <f>values!A10</f>
+        <v>&lt;NIL2&gt;</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
@@ -1235,7 +1259,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1292,16 +1316,27 @@
         <v>42755</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
+      <c r="A9" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="B9" s="29"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="29"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
